--- a/d09exp/resources/Survey.xlsx
+++ b/d09exp/resources/Survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\kivy_venv\Project4D09exp\d09exp\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sotas\programming\d09exp\d09exp\d09exp\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876A759A-0790-412A-95E0-24F01B2BCE0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E47860-FC01-4D69-970F-21BD90E21E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
   <si>
     <t>Question</t>
   </si>
@@ -51,15 +51,6 @@
     <t>Female</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Do you have musical training (two or more years of lessons/school)?</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -76,6 +67,84 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>What is your handedness?</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Do you have colour blindness?</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Non-binary 
+or trans</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>10+</t>
+  </si>
+  <si>
+    <t>Do you play a musical instrument and/or sing?</t>
+  </si>
+  <si>
+    <t>What year did you start playing?</t>
+  </si>
+  <si>
+    <t>Including time spent rehearsing, approximately how many hours a week do you play/sing?</t>
+  </si>
+  <si>
+    <t>What type of music do you usually play? (Classical, Pop, or other - please specify)</t>
+  </si>
+  <si>
+    <t>What is your principle instrument?</t>
+  </si>
+  <si>
+    <t>Do you listen to music?</t>
+  </si>
+  <si>
+    <t>Approximately how many hours per week do you listen to music?</t>
+  </si>
+  <si>
+    <t>What types of music do you listen to? (Classical, Pop, or others - please specify)</t>
+  </si>
+  <si>
+    <t>Approximately how often do you dance? Once a:</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>What style(s) do you dance? (Latin, Ballet, Ballroom, Free, etc.) Please write your answer(s) in the box below.</t>
+  </si>
+  <si>
+    <t>Have you ever had any formal dance training?
+If yes, select for how many years of training.</t>
+  </si>
+  <si>
+    <t>Have you ever had any formal music training?
+If yes, select for how many years of training.</t>
   </si>
 </sst>
 </file>
@@ -111,8 +180,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,20 +465,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.3984375" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" customWidth="1"/>
+    <col min="4" max="7" width="10.59765625" customWidth="1"/>
+    <col min="8" max="14" width="4.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -415,16 +491,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -434,54 +510,287 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
